--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd28-Cd80.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd28-Cd80.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,19 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd28</t>
   </si>
   <si>
     <t>Cd80</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.57637203288784</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="H2">
-        <v>3.57637203288784</v>
+        <v>13.292627</v>
       </c>
       <c r="I2">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="J2">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.04815090413046</v>
+        <v>0.08106466666666667</v>
       </c>
       <c r="N2">
-        <v>1.04815090413046</v>
+        <v>0.243194</v>
       </c>
       <c r="O2">
-        <v>0.01211820855398139</v>
+        <v>0.0008070985645251864</v>
       </c>
       <c r="P2">
-        <v>0.01211820855398139</v>
+        <v>0.0008070985645251862</v>
       </c>
       <c r="Q2">
-        <v>3.748577579778281</v>
+        <v>0.3591874589597778</v>
       </c>
       <c r="R2">
-        <v>3.748577579778281</v>
+        <v>3.232687130638</v>
       </c>
       <c r="S2">
-        <v>0.003825292866125324</v>
+        <v>0.0002881229231585311</v>
       </c>
       <c r="T2">
-        <v>0.003825292866125324</v>
+        <v>0.000288122923158531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.57637203288784</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="H3">
-        <v>3.57637203288784</v>
+        <v>13.292627</v>
       </c>
       <c r="I3">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="J3">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0456901484545</v>
+        <v>1.119701666666667</v>
       </c>
       <c r="N3">
-        <v>12.0456901484545</v>
+        <v>3.359105</v>
       </c>
       <c r="O3">
-        <v>0.1392663831327879</v>
+        <v>0.01114800868273632</v>
       </c>
       <c r="P3">
-        <v>0.1392663831327879</v>
+        <v>0.01114800868273631</v>
       </c>
       <c r="Q3">
-        <v>43.07986936376525</v>
+        <v>4.961258868759444</v>
       </c>
       <c r="R3">
-        <v>43.07986936376525</v>
+        <v>44.65132981883499</v>
       </c>
       <c r="S3">
-        <v>0.04396150631636901</v>
+        <v>0.003979683511091711</v>
       </c>
       <c r="T3">
-        <v>0.04396150631636901</v>
+        <v>0.00397968351109171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.57637203288784</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="H4">
-        <v>3.57637203288784</v>
+        <v>13.292627</v>
       </c>
       <c r="I4">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="J4">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.3208400928581</v>
+        <v>15.87603366666667</v>
       </c>
       <c r="N4">
-        <v>16.3208400928581</v>
+        <v>47.628101</v>
       </c>
       <c r="O4">
-        <v>0.188693577653794</v>
+        <v>0.158065461928175</v>
       </c>
       <c r="P4">
-        <v>0.188693577653794</v>
+        <v>0.158065461928175</v>
       </c>
       <c r="Q4">
-        <v>58.36939606133228</v>
+        <v>70.3447312568141</v>
       </c>
       <c r="R4">
-        <v>58.36939606133228</v>
+        <v>633.102581311327</v>
       </c>
       <c r="S4">
-        <v>0.05956393581339844</v>
+        <v>0.05642716384701004</v>
       </c>
       <c r="T4">
-        <v>0.05956393581339844</v>
+        <v>0.05642716384701002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.57637203288784</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="H5">
-        <v>3.57637203288784</v>
+        <v>13.292627</v>
       </c>
       <c r="I5">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="J5">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.0433493898552</v>
+        <v>17.297808</v>
       </c>
       <c r="N5">
-        <v>56.0433493898552</v>
+        <v>51.893424</v>
       </c>
       <c r="O5">
-        <v>0.6479458189594614</v>
+        <v>0.172220975923324</v>
       </c>
       <c r="P5">
-        <v>0.6479458189594614</v>
+        <v>0.1722209759233239</v>
       </c>
       <c r="Q5">
-        <v>200.4318673872399</v>
+        <v>76.644436553872</v>
       </c>
       <c r="R5">
-        <v>200.4318673872399</v>
+        <v>689.799928984848</v>
       </c>
       <c r="S5">
-        <v>0.2045337401036089</v>
+        <v>0.06148048477999078</v>
       </c>
       <c r="T5">
-        <v>0.2045337401036089</v>
+        <v>0.06148048477999074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.57637203288784</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="H6">
-        <v>3.57637203288784</v>
+        <v>13.292627</v>
       </c>
       <c r="I6">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="J6">
-        <v>0.3156648814125699</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.03585174617926</v>
+        <v>64.94471299999999</v>
       </c>
       <c r="N6">
-        <v>1.03585174617926</v>
+        <v>194.834139</v>
       </c>
       <c r="O6">
-        <v>0.01197601169997529</v>
+        <v>0.6466045786795752</v>
       </c>
       <c r="P6">
-        <v>0.01197601169997529</v>
+        <v>0.6466045786795751</v>
       </c>
       <c r="Q6">
-        <v>3.704591215253539</v>
+        <v>287.7619485103503</v>
       </c>
       <c r="R6">
-        <v>3.704591215253539</v>
+        <v>2589.857536593153</v>
       </c>
       <c r="S6">
-        <v>0.003780406313068249</v>
+        <v>0.2308288101670089</v>
       </c>
       <c r="T6">
-        <v>0.003780406313068249</v>
+        <v>0.2308288101670089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.02345005547408</v>
+        <v>4.430875666666666</v>
       </c>
       <c r="H7">
-        <v>7.02345005547408</v>
+        <v>13.292627</v>
       </c>
       <c r="I7">
-        <v>0.6199177570120159</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="J7">
-        <v>0.6199177570120159</v>
+        <v>0.3569860433688579</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.04815090413046</v>
+        <v>1.120291</v>
       </c>
       <c r="N7">
-        <v>1.04815090413046</v>
+        <v>3.360873</v>
       </c>
       <c r="O7">
-        <v>0.01211820855398139</v>
+        <v>0.01115387622166442</v>
       </c>
       <c r="P7">
-        <v>0.01211820855398139</v>
+        <v>0.01115387622166441</v>
       </c>
       <c r="Q7">
-        <v>7.361635525760287</v>
+        <v>4.963870131485666</v>
       </c>
       <c r="R7">
-        <v>7.361635525760287</v>
+        <v>44.674831183371</v>
       </c>
       <c r="S7">
-        <v>0.007512292665787965</v>
+        <v>0.003981778140597967</v>
       </c>
       <c r="T7">
-        <v>0.007512292665787965</v>
+        <v>0.003981778140597965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.02345005547408</v>
+        <v>7.025118333333332</v>
       </c>
       <c r="H8">
-        <v>7.02345005547408</v>
+        <v>21.075355</v>
       </c>
       <c r="I8">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733577</v>
       </c>
       <c r="J8">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733576</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>12.0456901484545</v>
+        <v>0.08106466666666667</v>
       </c>
       <c r="N8">
-        <v>12.0456901484545</v>
+        <v>0.243194</v>
       </c>
       <c r="O8">
-        <v>0.1392663831327879</v>
+        <v>0.0008070985645251864</v>
       </c>
       <c r="P8">
-        <v>0.1392663831327879</v>
+        <v>0.0008070985645251862</v>
       </c>
       <c r="Q8">
-        <v>84.60230314138634</v>
+        <v>0.5694888759855555</v>
       </c>
       <c r="R8">
-        <v>84.60230314138634</v>
+        <v>5.12539988387</v>
       </c>
       <c r="S8">
-        <v>0.08633370385885389</v>
+        <v>0.0004568166163997354</v>
       </c>
       <c r="T8">
-        <v>0.08633370385885389</v>
+        <v>0.0004568166163997352</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.02345005547408</v>
+        <v>7.025118333333332</v>
       </c>
       <c r="H9">
-        <v>7.02345005547408</v>
+        <v>21.075355</v>
       </c>
       <c r="I9">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733577</v>
       </c>
       <c r="J9">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733576</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.3208400928581</v>
+        <v>1.119701666666667</v>
       </c>
       <c r="N9">
-        <v>16.3208400928581</v>
+        <v>3.359105</v>
       </c>
       <c r="O9">
-        <v>0.188693577653794</v>
+        <v>0.01114800868273632</v>
       </c>
       <c r="P9">
-        <v>0.188693577653794</v>
+        <v>0.01114800868273631</v>
       </c>
       <c r="Q9">
-        <v>114.6286052555678</v>
+        <v>7.866036706363888</v>
       </c>
       <c r="R9">
-        <v>114.6286052555678</v>
+        <v>70.794330357275</v>
       </c>
       <c r="S9">
-        <v>0.1169744994217126</v>
+        <v>0.006309756738371148</v>
       </c>
       <c r="T9">
-        <v>0.1169744994217126</v>
+        <v>0.006309756738371145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.02345005547408</v>
+        <v>7.025118333333332</v>
       </c>
       <c r="H10">
-        <v>7.02345005547408</v>
+        <v>21.075355</v>
       </c>
       <c r="I10">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733577</v>
       </c>
       <c r="J10">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733576</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.0433493898552</v>
+        <v>15.87603366666667</v>
       </c>
       <c r="N10">
-        <v>56.0433493898552</v>
+        <v>47.628101</v>
       </c>
       <c r="O10">
-        <v>0.6479458189594614</v>
+        <v>0.158065461928175</v>
       </c>
       <c r="P10">
-        <v>0.6479458189594614</v>
+        <v>0.158065461928175</v>
       </c>
       <c r="Q10">
-        <v>393.6176653811318</v>
+        <v>111.5310151723172</v>
       </c>
       <c r="R10">
-        <v>393.6176653811318</v>
+        <v>1003.779136550855</v>
       </c>
       <c r="S10">
-        <v>0.401673118754663</v>
+        <v>0.08946482209415056</v>
       </c>
       <c r="T10">
-        <v>0.401673118754663</v>
+        <v>0.08946482209415052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.02345005547408</v>
+        <v>7.025118333333332</v>
       </c>
       <c r="H11">
-        <v>7.02345005547408</v>
+        <v>21.075355</v>
       </c>
       <c r="I11">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733577</v>
       </c>
       <c r="J11">
-        <v>0.6199177570120159</v>
+        <v>0.5659985489733576</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.03585174617926</v>
+        <v>17.297808</v>
       </c>
       <c r="N11">
-        <v>1.03585174617926</v>
+        <v>51.893424</v>
       </c>
       <c r="O11">
-        <v>0.01197601169997529</v>
+        <v>0.172220975923324</v>
       </c>
       <c r="P11">
-        <v>0.01197601169997529</v>
+        <v>0.1722209759233239</v>
       </c>
       <c r="Q11">
-        <v>7.275253004165647</v>
+        <v>121.51914810728</v>
       </c>
       <c r="R11">
-        <v>7.275253004165647</v>
+        <v>1093.67233296552</v>
       </c>
       <c r="S11">
-        <v>0.00742414231099834</v>
+        <v>0.09747682247537695</v>
       </c>
       <c r="T11">
-        <v>0.00742414231099834</v>
+        <v>0.09747682247537688</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7298260400073791</v>
+        <v>7.025118333333332</v>
       </c>
       <c r="H12">
-        <v>0.7298260400073791</v>
+        <v>21.075355</v>
       </c>
       <c r="I12">
-        <v>0.06441736157541413</v>
+        <v>0.5659985489733577</v>
       </c>
       <c r="J12">
-        <v>0.06441736157541413</v>
+        <v>0.5659985489733576</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.04815090413046</v>
+        <v>64.94471299999999</v>
       </c>
       <c r="N12">
-        <v>1.04815090413046</v>
+        <v>194.834139</v>
       </c>
       <c r="O12">
-        <v>0.01211820855398139</v>
+        <v>0.6466045786795752</v>
       </c>
       <c r="P12">
-        <v>0.01211820855398139</v>
+        <v>0.6466045786795751</v>
       </c>
       <c r="Q12">
-        <v>0.7649678236916876</v>
+        <v>456.2442939493716</v>
       </c>
       <c r="R12">
-        <v>0.7649678236916876</v>
+        <v>4106.198645544345</v>
       </c>
       <c r="S12">
-        <v>0.0007806230220680952</v>
+        <v>0.3659772532921688</v>
       </c>
       <c r="T12">
-        <v>0.0007806230220680952</v>
+        <v>0.3659772532921687</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7298260400073791</v>
+        <v>7.025118333333332</v>
       </c>
       <c r="H13">
-        <v>0.7298260400073791</v>
+        <v>21.075355</v>
       </c>
       <c r="I13">
-        <v>0.06441736157541413</v>
+        <v>0.5659985489733577</v>
       </c>
       <c r="J13">
-        <v>0.06441736157541413</v>
+        <v>0.5659985489733576</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0456901484545</v>
+        <v>1.120291</v>
       </c>
       <c r="N13">
-        <v>12.0456901484545</v>
+        <v>3.360873</v>
       </c>
       <c r="O13">
-        <v>0.1392663831327879</v>
+        <v>0.01115387622166442</v>
       </c>
       <c r="P13">
-        <v>0.1392663831327879</v>
+        <v>0.01115387622166441</v>
       </c>
       <c r="Q13">
-        <v>8.791258340202447</v>
+        <v>7.870176842768331</v>
       </c>
       <c r="R13">
-        <v>8.791258340202447</v>
+        <v>70.83159158491499</v>
       </c>
       <c r="S13">
-        <v>0.00897117295756495</v>
+        <v>0.006313077756890498</v>
       </c>
       <c r="T13">
-        <v>0.00897117295756495</v>
+        <v>0.006313077756890494</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7298260400073791</v>
+        <v>0.950574</v>
       </c>
       <c r="H14">
-        <v>0.7298260400073791</v>
+        <v>2.851722</v>
       </c>
       <c r="I14">
-        <v>0.06441736157541413</v>
+        <v>0.0765856857013987</v>
       </c>
       <c r="J14">
-        <v>0.06441736157541413</v>
+        <v>0.07658568570139869</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>16.3208400928581</v>
+        <v>0.08106466666666667</v>
       </c>
       <c r="N14">
-        <v>16.3208400928581</v>
+        <v>0.243194</v>
       </c>
       <c r="O14">
-        <v>0.188693577653794</v>
+        <v>0.0008070985645251864</v>
       </c>
       <c r="P14">
-        <v>0.188693577653794</v>
+        <v>0.0008070985645251862</v>
       </c>
       <c r="Q14">
-        <v>11.91137409456429</v>
+        <v>0.07705796445200001</v>
       </c>
       <c r="R14">
-        <v>11.91137409456429</v>
+        <v>0.6935216800680001</v>
       </c>
       <c r="S14">
-        <v>0.01215514241868293</v>
+        <v>6.181219699277598E-05</v>
       </c>
       <c r="T14">
-        <v>0.01215514241868293</v>
+        <v>6.181219699277596E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7298260400073791</v>
+        <v>0.950574</v>
       </c>
       <c r="H15">
-        <v>0.7298260400073791</v>
+        <v>2.851722</v>
       </c>
       <c r="I15">
-        <v>0.06441736157541413</v>
+        <v>0.0765856857013987</v>
       </c>
       <c r="J15">
-        <v>0.06441736157541413</v>
+        <v>0.07658568570139869</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.0433493898552</v>
+        <v>1.119701666666667</v>
       </c>
       <c r="N15">
-        <v>56.0433493898552</v>
+        <v>3.359105</v>
       </c>
       <c r="O15">
-        <v>0.6479458189594614</v>
+        <v>0.01114800868273632</v>
       </c>
       <c r="P15">
-        <v>0.6479458189594614</v>
+        <v>0.01114800868273631</v>
       </c>
       <c r="Q15">
-        <v>40.90189575394798</v>
+        <v>1.06435929209</v>
       </c>
       <c r="R15">
-        <v>40.90189575394798</v>
+        <v>9.57923362881</v>
       </c>
       <c r="S15">
-        <v>0.04173896010118944</v>
+        <v>0.0008537778891725073</v>
       </c>
       <c r="T15">
-        <v>0.04173896010118944</v>
+        <v>0.000853777889172507</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,619 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.950574</v>
+      </c>
+      <c r="H16">
+        <v>2.851722</v>
+      </c>
+      <c r="I16">
+        <v>0.0765856857013987</v>
+      </c>
+      <c r="J16">
+        <v>0.07658568570139869</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.87603366666667</v>
+      </c>
+      <c r="N16">
+        <v>47.628101</v>
+      </c>
+      <c r="O16">
+        <v>0.158065461928175</v>
+      </c>
+      <c r="P16">
+        <v>0.158065461928175</v>
+      </c>
+      <c r="Q16">
+        <v>15.091344826658</v>
+      </c>
+      <c r="R16">
+        <v>135.822103439922</v>
+      </c>
+      <c r="S16">
+        <v>0.01210555178747761</v>
+      </c>
+      <c r="T16">
+        <v>0.01210555178747761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.950574</v>
+      </c>
+      <c r="H17">
+        <v>2.851722</v>
+      </c>
+      <c r="I17">
+        <v>0.0765856857013987</v>
+      </c>
+      <c r="J17">
+        <v>0.07658568570139869</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.297808</v>
+      </c>
+      <c r="N17">
+        <v>51.893424</v>
+      </c>
+      <c r="O17">
+        <v>0.172220975923324</v>
+      </c>
+      <c r="P17">
+        <v>0.1722209759233239</v>
+      </c>
+      <c r="Q17">
+        <v>16.442846541792</v>
+      </c>
+      <c r="R17">
+        <v>147.985618876128</v>
+      </c>
+      <c r="S17">
+        <v>0.01318966153325185</v>
+      </c>
+      <c r="T17">
+        <v>0.01318966153325184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.950574</v>
+      </c>
+      <c r="H18">
+        <v>2.851722</v>
+      </c>
+      <c r="I18">
+        <v>0.0765856857013987</v>
+      </c>
+      <c r="J18">
+        <v>0.07658568570139869</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>64.94471299999999</v>
+      </c>
+      <c r="N18">
+        <v>194.834139</v>
+      </c>
+      <c r="O18">
+        <v>0.6466045786795752</v>
+      </c>
+      <c r="P18">
+        <v>0.6466045786795751</v>
+      </c>
+      <c r="Q18">
+        <v>61.734755615262</v>
+      </c>
+      <c r="R18">
+        <v>555.612800537358</v>
+      </c>
+      <c r="S18">
+        <v>0.04952065503583928</v>
+      </c>
+      <c r="T18">
+        <v>0.04952065503583926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.950574</v>
+      </c>
+      <c r="H19">
+        <v>2.851722</v>
+      </c>
+      <c r="I19">
+        <v>0.0765856857013987</v>
+      </c>
+      <c r="J19">
+        <v>0.07658568570139869</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.120291</v>
+      </c>
+      <c r="N19">
+        <v>3.360873</v>
+      </c>
+      <c r="O19">
+        <v>0.01115387622166442</v>
+      </c>
+      <c r="P19">
+        <v>0.01115387622166441</v>
+      </c>
+      <c r="Q19">
+        <v>1.064919497034</v>
+      </c>
+      <c r="R19">
+        <v>9.584275473306</v>
+      </c>
+      <c r="S19">
+        <v>0.0008542272586646956</v>
+      </c>
+      <c r="T19">
+        <v>0.0008542272586646952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.7298260400073791</v>
-      </c>
-      <c r="H16">
-        <v>0.7298260400073791</v>
-      </c>
-      <c r="I16">
-        <v>0.06441736157541413</v>
-      </c>
-      <c r="J16">
-        <v>0.06441736157541413</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.03585174617926</v>
-      </c>
-      <c r="N16">
-        <v>1.03585174617926</v>
-      </c>
-      <c r="O16">
-        <v>0.01197601169997529</v>
-      </c>
-      <c r="P16">
-        <v>0.01197601169997529</v>
-      </c>
-      <c r="Q16">
-        <v>0.7559915779487381</v>
-      </c>
-      <c r="R16">
-        <v>0.7559915779487381</v>
-      </c>
-      <c r="S16">
-        <v>0.0007714630759086981</v>
-      </c>
-      <c r="T16">
-        <v>0.0007714630759086981</v>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.005333666666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.016001</v>
+      </c>
+      <c r="I20">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="J20">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.08106466666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.243194</v>
+      </c>
+      <c r="O20">
+        <v>0.0008070985645251864</v>
+      </c>
+      <c r="P20">
+        <v>0.0008070985645251862</v>
+      </c>
+      <c r="Q20">
+        <v>0.0004323719104444445</v>
+      </c>
+      <c r="R20">
+        <v>0.003891347194000001</v>
+      </c>
+      <c r="S20">
+        <v>3.468279741438361E-07</v>
+      </c>
+      <c r="T20">
+        <v>3.46827974143836E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.005333666666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.016001</v>
+      </c>
+      <c r="I21">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="J21">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.119701666666667</v>
+      </c>
+      <c r="N21">
+        <v>3.359105</v>
+      </c>
+      <c r="O21">
+        <v>0.01114800868273632</v>
+      </c>
+      <c r="P21">
+        <v>0.01114800868273631</v>
+      </c>
+      <c r="Q21">
+        <v>0.005972115456111112</v>
+      </c>
+      <c r="R21">
+        <v>0.05374903910500001</v>
+      </c>
+      <c r="S21">
+        <v>4.790544100949984E-06</v>
+      </c>
+      <c r="T21">
+        <v>4.790544100949983E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.005333666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.016001</v>
+      </c>
+      <c r="I22">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="J22">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.87603366666667</v>
+      </c>
+      <c r="N22">
+        <v>47.628101</v>
+      </c>
+      <c r="O22">
+        <v>0.158065461928175</v>
+      </c>
+      <c r="P22">
+        <v>0.158065461928175</v>
+      </c>
+      <c r="Q22">
+        <v>0.08467747156677778</v>
+      </c>
+      <c r="R22">
+        <v>0.7620972441010001</v>
+      </c>
+      <c r="S22">
+        <v>6.792419953678139E-05</v>
+      </c>
+      <c r="T22">
+        <v>6.792419953678137E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.005333666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.016001</v>
+      </c>
+      <c r="I23">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="J23">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>17.297808</v>
+      </c>
+      <c r="N23">
+        <v>51.893424</v>
+      </c>
+      <c r="O23">
+        <v>0.172220975923324</v>
+      </c>
+      <c r="P23">
+        <v>0.1722209759233239</v>
+      </c>
+      <c r="Q23">
+        <v>0.09226074193600001</v>
+      </c>
+      <c r="R23">
+        <v>0.830346677424</v>
+      </c>
+      <c r="S23">
+        <v>7.400713470442167E-05</v>
+      </c>
+      <c r="T23">
+        <v>7.400713470442163E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.005333666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.016001</v>
+      </c>
+      <c r="I24">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="J24">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>64.94471299999999</v>
+      </c>
+      <c r="N24">
+        <v>194.834139</v>
+      </c>
+      <c r="O24">
+        <v>0.6466045786795752</v>
+      </c>
+      <c r="P24">
+        <v>0.6466045786795751</v>
+      </c>
+      <c r="Q24">
+        <v>0.3463934509043333</v>
+      </c>
+      <c r="R24">
+        <v>3.117541058139</v>
+      </c>
+      <c r="S24">
+        <v>0.0002778601845581246</v>
+      </c>
+      <c r="T24">
+        <v>0.0002778601845581245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.005333666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.016001</v>
+      </c>
+      <c r="I25">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="J25">
+        <v>0.0004297219563856788</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.120291</v>
+      </c>
+      <c r="N25">
+        <v>3.360873</v>
+      </c>
+      <c r="O25">
+        <v>0.01115387622166442</v>
+      </c>
+      <c r="P25">
+        <v>0.01115387622166441</v>
+      </c>
+      <c r="Q25">
+        <v>0.005975258763666667</v>
+      </c>
+      <c r="R25">
+        <v>0.053777328873</v>
+      </c>
+      <c r="S25">
+        <v>4.793065511257337E-06</v>
+      </c>
+      <c r="T25">
+        <v>4.793065511257335E-06</v>
       </c>
     </row>
   </sheetData>
